--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaishak S Kumar\java\OpenCart\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A5F445-43F0-4574-8B0F-584C5D2655D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D0BC42-C29F-4507-BAC9-E0AA91133411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="90" yWindow="30" windowWidth="20385" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Username</t>
   </si>
@@ -60,10 +60,13 @@
     <t>bob%44</t>
   </si>
   <si>
-    <t>abc122@yopmai.om</t>
-  </si>
-  <si>
-    <t>test@12311</t>
+    <t>abc123@gmail.com</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Invalid</t>
   </si>
 </sst>
 </file>
@@ -128,11 +131,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,20 +427,21 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -437,49 +449,59 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
